--- a/biology/Médecine/Péri-implantite/Péri-implantite.xlsx
+++ b/biology/Médecine/Péri-implantite/Péri-implantite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%A9ri-implantite</t>
+          <t>Péri-implantite</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La péri-implantite est la perte progressive de l'os péri-implantaire à la suite d'une réaction inflammatoire[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La péri-implantite est la perte progressive de l'os péri-implantaire à la suite d'une réaction inflammatoire.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P%C3%A9ri-implantite</t>
+          <t>Péri-implantite</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Implantologie dentaire et péri-implantite</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le risque de péri-implantite est accru lors de la mise en place d'un implant dentaire. La réaction inflammatoire pouvant survenir à la suite du déséquilibre de l'environnement intra-oral induit cette perte osseuse.
-Il s'agit de la principale source de complications à moyen et long terme des implants dentaires[2]. Selon l'étude Roos-Jansåcker ayant suivi un échantillon de patients, une péri-implantite apparaît dans 16 % des cas de mucosité chez ces derniers (48 % des patients) après 9 à 14 années d'implantation[2],[3].
+Il s'agit de la principale source de complications à moyen et long terme des implants dentaires. Selon l'étude Roos-Jansåcker ayant suivi un échantillon de patients, une péri-implantite apparaît dans 16 % des cas de mucosité chez ces derniers (48 % des patients) après 9 à 14 années d'implantation,.
 Le risque de péri-implantite est diminué lorsque toute prolifération et/ou colonisation  bactérienne est évitée au niveau de la partie transmuqueuse du site implantaire.
 Les fabricants d'implants dentaires utilisent de plus en plus des  céramiques techniques telles que la zircone Y-TZP pour pallier l'apparition des bactéries pathogènes.
-Une étude de 2009 par Wilson TG Jr (2009) affirme que 25 % des prothèses scellées présentent des excès de ciment, 81 % des péri-implantites seraient dues à ces excès et qu'après le retrait des excès et nettoyage, 74 % de ces implants ne présentent plus de signe de péri-implantite[4].
+Une étude de 2009 par Wilson TG Jr (2009) affirme que 25 % des prothèses scellées présentent des excès de ciment, 81 % des péri-implantites seraient dues à ces excès et qu'après le retrait des excès et nettoyage, 74 % de ces implants ne présentent plus de signe de péri-implantite.
 </t>
         </is>
       </c>
